--- a/artfynd/A 56017-2025 artfynd.xlsx
+++ b/artfynd/A 56017-2025 artfynd.xlsx
@@ -1029,7 +1029,7 @@
         <v>130111912</v>
       </c>
       <c r="B5" t="n">
-        <v>57069</v>
+        <v>57073</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
